--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t/>
   </si>
@@ -56,40 +56,43 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A44380</t>
-  </si>
-  <si>
-    <t>2020/12/31</t>
+    <t>A78143</t>
+  </si>
+  <si>
+    <t>2021/02/11</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>沪A88888</t>
-  </si>
-  <si>
-    <t>ASDAAABBB78765431</t>
-  </si>
-  <si>
-    <t>隔壁老王</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>15321527989</t>
-  </si>
-  <si>
-    <t>路虎揽胜</t>
+    <t>保养</t>
+  </si>
+  <si>
+    <t>京QWER123</t>
+  </si>
+  <si>
+    <t>ASDFFGGDSF1451234</t>
+  </si>
+  <si>
+    <t>夏明凤</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>15037286013</t>
+  </si>
+  <si>
+    <t>自动化专用账号</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>2021/01/05</t>
+    <t>2021/02/16</t>
   </si>
 </sst>
 </file>
@@ -216,10 +219,10 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A78143</t>
-  </si>
-  <si>
-    <t>2021/02/11</t>
+    <t>A53875</t>
+  </si>
+  <si>
+    <t>2021/02/17 17:26</t>
   </si>
   <si>
     <t>2</t>
@@ -92,7 +92,7 @@
     <t>2000</t>
   </si>
   <si>
-    <t>2021/02/16</t>
+    <t>2021/02/22 17:26</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A53875</t>
-  </si>
-  <si>
-    <t>2021/02/17 17:26</t>
+    <t>A66784</t>
+  </si>
+  <si>
+    <t>2021/02/18 17:41</t>
   </si>
   <si>
     <t>2</t>
@@ -92,7 +92,7 @@
     <t>2000</t>
   </si>
   <si>
-    <t>2021/02/22 17:26</t>
+    <t>2021/02/23 17:41</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A66784</t>
-  </si>
-  <si>
-    <t>2021/02/18 17:41</t>
+    <t>A45850</t>
+  </si>
+  <si>
+    <t>2021/02/20 15:19:17</t>
   </si>
   <si>
     <t>2</t>
@@ -92,7 +92,7 @@
     <t>2000</t>
   </si>
   <si>
-    <t>2021/02/23 17:41</t>
+    <t>2021/02/25 15:19:17</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A45850</t>
-  </si>
-  <si>
-    <t>2021/02/20 15:19:17</t>
+    <t>A15195</t>
+  </si>
+  <si>
+    <t>2021/02/26 19:27:23</t>
   </si>
   <si>
     <t>2</t>
@@ -92,7 +92,7 @@
     <t>2000</t>
   </si>
   <si>
-    <t>2021/02/25 15:19:17</t>
+    <t>2021/03/03 19:27:23</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A15195</t>
-  </si>
-  <si>
-    <t>2021/02/26 19:27:23</t>
+    <t>A7217</t>
+  </si>
+  <si>
+    <t>2021/04/02 12:58:33</t>
   </si>
   <si>
     <t>2</t>
@@ -92,7 +92,7 @@
     <t>2000</t>
   </si>
   <si>
-    <t>2021/03/03 19:27:23</t>
+    <t>2021/04/07 12:58:33</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A7217</t>
-  </si>
-  <si>
-    <t>2021/04/02 12:58:33</t>
+    <t>A93649</t>
+  </si>
+  <si>
+    <t>2021/04/24 16:47:57</t>
   </si>
   <si>
     <t>2</t>
@@ -92,7 +92,7 @@
     <t>2000</t>
   </si>
   <si>
-    <t>2021/04/07 12:58:33</t>
+    <t>2021/04/29 16:47:57</t>
   </si>
 </sst>
 </file>
